--- a/output/instance_SMALL_scenario_2/dual_variables_iteration3.xlsx
+++ b/output/instance_SMALL_scenario_2/dual_variables_iteration3.xlsx
@@ -957,7 +957,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-118918.9326005613</v>
       </c>
     </row>
     <row r="3">
@@ -991,17 +991,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0</v>
+        <v>15161616.675</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0</v>
+        <v>17023891.365</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0</v>
+        <v>13712433.895</v>
       </c>
     </row>
   </sheetData>

--- a/output/instance_SMALL_scenario_2/dual_variables_iteration3.xlsx
+++ b/output/instance_SMALL_scenario_2/dual_variables_iteration3.xlsx
@@ -957,7 +957,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-118918.9326005613</v>
+        <v>-10.05222087110701</v>
       </c>
     </row>
     <row r="3">
@@ -991,17 +991,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15161616.675</v>
+        <v>14303593.64251507</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17023891.365</v>
+        <v>15820331.78251507</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13712433.895</v>
+        <v>11644905.845</v>
       </c>
     </row>
   </sheetData>
